--- a/lib/db/output_directory/All Income.xlsx
+++ b/lib/db/output_directory/All Income.xlsx
@@ -480,14 +480,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>March paycheck #2</t>
+          <t>April Paycheck #1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45000</v>
+        <v>45017</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,14 +498,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>March paycheck #1</t>
+          <t>july paycheck #2</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1200</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44986</v>
+        <v>45123</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -516,14 +516,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>july paycheck #2</t>
+          <t>May Paycheck #1</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1200</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45123</v>
+        <v>45047</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -534,32 +534,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>May Paycheck #1</t>
+          <t>Bonus check</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45047</v>
+        <v>45128</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Paycheck</t>
+          <t>Bonus</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bonus check</t>
+          <t>April Paycheck #1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45128</v>
+        <v>45017</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -570,14 +570,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>April Paycheck #1</t>
+          <t>January Paycheck #2</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1200</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45017</v>
+        <v>44941</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
